--- a/Salespeople/datatypes_constraints.xlsx
+++ b/Salespeople/datatypes_constraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao\OneDrive\Documents\OneDrive - University of North Georgia\GATECH\CS6400\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1925BE38-071C-493B-A2FD-F9D0C9A8245E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B950B7EB-1003-48CF-AA31-9C926B3B6CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="570" yWindow="840" windowWidth="14460" windowHeight="11220" xr2:uid="{67D8C84F-6A2A-4B91-9426-3A8C7E8A6F4E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Sold_Price</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Vehicle_ID</t>
   </si>
   <si>
-    <t>If a sold price is less than or equal to 95% of the invoice price, the system will reject the sale. There is no restriction on sold prices that exceed the list price.</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -88,6 +85,25 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Vehicles are bought by customers via a salesperson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a sold price is less than or equal to 95% of the invoice price, the system will reject the sale. </t>
+  </si>
+  <si>
+    <t>SALESPERSON AND SALES ENTITY</t>
+  </si>
+  <si>
+    <t>If buyer purchase several vehicles at the same time, they would still be handled as 
+CS 6400 – Team Project Fall 2021
+3
+separate sales transactions</t>
+  </si>
+  <si>
+    <t>The purchase date should be tracked to determine when a vehicle
+leaves inventory.</t>
   </si>
 </sst>
 </file>
@@ -161,12 +177,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -189,6 +202,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF3F81E-2353-4F42-8CB5-3BAE518C6EB1}">
-  <dimension ref="A8:G24"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,151 +538,146 @@
     <col min="4" max="7" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:G12"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>